--- a/biology/Botanique/Tapeinochilos/Tapeinochilos.xlsx
+++ b/biology/Botanique/Tapeinochilos/Tapeinochilos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapeinochilos est un genre de plantes de la famille des Costaceae.
 La distribution de Tapeinochilos s'étend des Iles Sulu dans l'Archipel des Moluques via la Nouvelle-Guinée jusqu'au Vanuatu à l'Est et à l'Australie tropicale (Nord du Queensland) au Sud. 
@@ -513,16 +525,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 Aug 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 Aug 2010) :
 Tapeinochilos ananassae
 Tapeinochilos dahlii
 Tapeinochilos hollrungii
 Tapeinochilos pubescens
 Tapeinochilos queenslandiae
 Tapeinochilos solomonensis
-Selon World Checklist of Selected Plant Families (WCSP)  (23 février 2012)[2] :
+Selon World Checklist of Selected Plant Families (WCSP)  (23 février 2012) :
 Tapeinochilos acaulis K.Schum. (1889)
 Tapeinochilos ananassae (Hassk.) K.Schum. (1899)
 Tapeinochilos beccarii K.Schum. (1899)
@@ -566,9 +580,11 @@
           <t>Espèces aux noms synonymes,  obsolètes et leur taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 février 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (23 février 2012) :
 Tapeinochilos australis K.Schum. (1899) = Tapeinochilos ananassae (Hassk.) K.Schum. (1899)
 Tapeinochilos koordersianus Ridl. (1900) = Etlingera heliconiifolia  (K.Schum.) A.D.Poulsen (2010)
 Tapeinochilos pungens (Teijsm. &amp; Binn.) Miq. (1869) = Tapeinochilos ananassae (Hassk.) K.Schum. (1899)
